--- a/20201114_mystocks.xlsx
+++ b/20201114_mystocks.xlsx
@@ -906,27 +906,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>두산, 두산중공업 1조3천억 유상증자에 4200억 출자하기로</t>
+          <t>두산重, 3Q 영업익 1717억…전년대비 23.6% 증가</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>2시간 전</t>
+          <t>3시간 전</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>비즈니스포스트</t>
+          <t>신아일보</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t xml:space="preserve">  두산그룹 지주사 격인 두산이 두산중공업 유상증자에 4203억 원을 출자한다. 두산은 13일 이사회를 열고 4203억5200만 원을 출자해 두산중공업의 보통주 4360만4952주를 취득하는 안건을 의결했다고 공시를 통해 밝혔다.... </t>
+          <t xml:space="preserve">  두산중공업은 올해 3분기 연결 기준 영업이익이 1717억원을 기록해 전년 동기 대비 23.6% 증가했다고 13일 공시했다. 매출은 3조6588억원으로 전년 동기 3조5674억원 대비 2.56% 증가했으며 당기순손실은 807억원을... </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>http://www.businesspost.co.kr/BP?command=article_view&amp;num=204478</t>
+          <t>http://www.shinailbo.co.kr/news/articleView.html?idxno=1343008</t>
         </is>
       </c>
     </row>
@@ -938,27 +938,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>두산重, 3Q 영업익 1717억…전년대비 23.6% 증가</t>
+          <t>두산, 두산중공업 1조3천억 유상증자에 4200억 출자하기로</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2시간 전</t>
+          <t>3시간 전</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>신아일보</t>
+          <t>비즈니스포스트</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  두산중공업은 올해 3분기 연결 기준 영업이익이 1717억원을 기록해 전년 동기 대비 23.6% 증가했다고 13일 공시했다. 매출은 3조6588억원으로 전년 동기 3조5674억원 대비 2.56% 증가했으며 당기순손실은 807억원을... </t>
+          <t xml:space="preserve">  두산그룹 지주사 격인 두산이 두산중공업 유상증자에 4203억 원을 출자한다. 두산은 13일 이사회를 열고 4203억5200만 원을 출자해 두산중공업의 보통주 4360만4952주를 취득하는 안건을 의결했다고 공시를 통해 밝혔다.... </t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>http://www.shinailbo.co.kr/news/articleView.html?idxno=1343008</t>
+          <t>http://www.businesspost.co.kr/BP?command=article_view&amp;num=204478</t>
         </is>
       </c>
     </row>
@@ -975,7 +975,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3시간 전</t>
+          <t>4시간 전</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1007,7 +1007,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4시간 전</t>
+          <t>5시간 전</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1071,7 +1071,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>5시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1103,7 +1103,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>5시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1135,7 +1135,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>5시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1167,7 +1167,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>5시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>5시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1231,7 +1231,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>5시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1263,7 +1263,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>5시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1295,7 +1295,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>5시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1327,7 +1327,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1391,7 +1391,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1423,7 +1423,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1455,7 +1455,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1487,7 +1487,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1519,7 +1519,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1583,7 +1583,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1610,27 +1610,27 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>두산 "두산중공업 주식 4360만주 추가취득"</t>
+          <t>두산 “두산중공업 주식 4204억원에 추가취득”</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>에너지경제</t>
+          <t>아주경제</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  두산은 주력 계열사인 두산중공업의 주식 4360만4952주를 추가 취득한다고 13일 밝혔다. 취득 금액은 약 4360억원이며 취득 예정일은 다음달 11일이다. 이번 주식취득에 따라 두산의 두산중공업 지분율은 42%로 늘어나게... </t>
+          <t xml:space="preserve">  석유선 기자 stone@ajunews.com 두산은 전동기·발전기 및 전기 변환장치 제조업 계열사 두산중공업의 주식 4360만4952주를 약 4204억원에 추가 취득한다고 13일 공시했다. 주식 취득 뒤 두산의 두산중공업 지분율은 42... </t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>https://www.ekn.kr/web/view.php?key=20201113010003340</t>
+          <t>http://www.ajunews.com/view/20201113171811578</t>
         </is>
       </c>
     </row>
@@ -1642,27 +1642,27 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>두산 “두산중공업 주식 4204억원에 추가취득”</t>
+          <t>두산 "두산중공업 주식 4360만주 추가취득"</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>아주경제</t>
+          <t>에너지경제</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  석유선 기자 stone@ajunews.com 두산은 전동기·발전기 및 전기 변환장치 제조업 계열사 두산중공업의 주식 4360만4952주를 약 4204억원에 추가 취득한다고 13일 공시했다. 주식 취득 뒤 두산의 두산중공업 지분율은 42... </t>
+          <t xml:space="preserve">  두산은 주력 계열사인 두산중공업의 주식 4360만4952주를 추가 취득한다고 13일 밝혔다. 취득 금액은 약 4360억원이며 취득 예정일은 다음달 11일이다. 이번 주식취득에 따라 두산의 두산중공업 지분율은 42%로 늘어나게... </t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>http://www.ajunews.com/view/20201113171811578</t>
+          <t>https://www.ekn.kr/web/view.php?key=20201113010003340</t>
         </is>
       </c>
     </row>
@@ -1679,7 +1679,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1711,7 +1711,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1743,7 +1743,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1775,7 +1775,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1839,7 +1839,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>7시간 전</t>
+          <t>8시간 전</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1871,7 +1871,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>7시간 전</t>
+          <t>8시간 전</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1935,7 +1935,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>12시간 전</t>
+          <t>13시간 전</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1967,7 +1967,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>16시간 전</t>
+          <t>17시간 전</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1999,7 +1999,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>17시간 전</t>
+          <t>18시간 전</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -2191,7 +2191,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>8시간 전</t>
+          <t>9시간 전</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>8시간 전</t>
+          <t>9시간 전</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2255,7 +2255,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>20시간 전</t>
+          <t>21시간 전</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2319,7 +2319,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>5시간 전</t>
+          <t>6시간 전</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>13시간 전</t>
+          <t>14시간 전</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2383,7 +2383,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>15시간 전</t>
+          <t>16시간 전</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2415,7 +2415,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2607,7 +2607,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>6시간 전</t>
+          <t>7시간 전</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2639,7 +2639,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>7시간 전</t>
+          <t>8시간 전</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2671,7 +2671,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>9시간 전</t>
+          <t>10시간 전</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2703,7 +2703,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>10시간 전</t>
+          <t>11시간 전</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
@@ -2767,7 +2767,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>14시간 전</t>
+          <t>15시간 전</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
